--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>validate title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be </t>
+  </si>
+  <si>
+    <t>is Online Shopping India Mobile, Cameras, Lifestyle &amp; more Online @ Flipkart.com</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Validate title</t>
@@ -126,6 +138,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
